--- a/data/intermediate/table2.02_20241202_e(2)_2.02 In USD 2006-2010_organized.xlsx
+++ b/data/intermediate/table2.02_20241202_e(2)_2.02 In USD 2006-2010_organized.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S224"/>
+  <dimension ref="A1:S98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,7 +521,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1900-01-01</t>
+          <t xml:space="preserve">                  Central Bank of Sri Lanka</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -540,7 +540,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1900-01-01</t>
+          <t xml:space="preserve">                  National Gem and Jewellery Authority</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -574,7 +574,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1900-01-02</t>
+          <t xml:space="preserve">                  Sri Lanka Customs</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -617,7 +617,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1900-01-02</t>
+          <t xml:space="preserve">  Sources: Ceylon Petroleum Corporation and Other Exporters of Petroleum</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -660,7 +660,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1900-01-04</t>
+          <t>2006  January</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -703,7 +703,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1900-01-06</t>
+          <t>2007  January</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -746,7 +746,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1900-01-06</t>
+          <t>2008  January</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -789,7 +789,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1900-01-07</t>
+          <t>2009   January</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -832,7 +832,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1900-01-08</t>
+          <t>2010 January</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -875,7 +875,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1900-01-08</t>
+          <t>April</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -918,7 +918,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1900-01-08</t>
+          <t>April</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -961,7 +961,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1900-01-08</t>
+          <t>April</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -1004,7 +1004,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1900-01-09</t>
+          <t>April</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -1035,7 +1035,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1900-01-09</t>
+          <t>April</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1063,7 +1063,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1900-01-10</t>
+          <t>Aug</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1097,7 +1097,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1900-01-10</t>
+          <t>Aug</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1140,7 +1140,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1900-01-11</t>
+          <t>Aug</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1183,7 +1183,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1900-01-12</t>
+          <t>Aug</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1226,7 +1226,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1900-01-13</t>
+          <t>Aug</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1269,7 +1269,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1900-01-13</t>
+          <t>Dec</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1312,7 +1312,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1900-01-13</t>
+          <t>Dec</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1355,7 +1355,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1900-01-13</t>
+          <t>Dec</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1398,7 +1398,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1900-01-14</t>
+          <t>Dec</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1441,7 +1441,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1900-01-14</t>
+          <t>Dec</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1484,7 +1484,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1900-01-15</t>
+          <t>February</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1527,7 +1527,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1900-01-17</t>
+          <t>February</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1558,7 +1558,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1900-01-17</t>
+          <t>February</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1586,7 +1586,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1900-01-18</t>
+          <t>February</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1620,7 +1620,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1900-01-19</t>
+          <t>February</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1663,7 +1663,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1900-01-19</t>
+          <t>Industrial Exports</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1706,7 +1706,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1900-01-20</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1749,7 +1749,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1900-01-25</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1792,7 +1792,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1900-01-26</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1835,7 +1835,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1900-01-27</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1878,7 +1878,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1900-01-27</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1921,7 +1921,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1900-01-27</t>
+          <t>Jun</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1964,7 +1964,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1900-01-27</t>
+          <t>Jun</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -2007,7 +2007,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1900-01-30</t>
+          <t>Jun</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -2050,7 +2050,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1900-02-08</t>
+          <t>Jun</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -2081,7 +2081,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1900-03-01</t>
+          <t>Jun</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -2109,7 +2109,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1900-03-02</t>
+          <t>March</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -2143,7 +2143,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1900-03-06</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -2186,7 +2186,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1900-03-30</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -2229,7 +2229,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1900-03-30</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -2272,7 +2272,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1900-06-20</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -2315,7 +2315,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1900-06-21</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -2358,7 +2358,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1900-08-08</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -2401,7 +2401,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1900-08-17</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -2444,7 +2444,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1900-08-27</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -2487,7 +2487,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1900-11-20</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -2530,7 +2530,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1901-01-14</t>
+          <t>Nov</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -2573,7 +2573,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1901-01-19</t>
+          <t>Nov</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -2604,7 +2604,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1901-01-19</t>
+          <t>Nov</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -2632,7 +2632,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1901-02-08</t>
+          <t>Nov</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -2666,7 +2666,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1901-03-15</t>
+          <t>Nov</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -2709,7 +2709,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1901-04-15</t>
+          <t>Oct</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -2752,7 +2752,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1901-05-01</t>
+          <t>Oct</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -2795,7 +2795,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1901-05-05</t>
+          <t>Oct</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -2838,7 +2838,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1901-07-05</t>
+          <t>Oct</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -2881,7 +2881,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2006-01-01</t>
+          <t>Oct</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -2924,7 +2924,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2006-01-01</t>
+          <t>Period</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -2967,7 +2967,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2006-02-01</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -3010,7 +3010,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2006-03-01</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -3053,7 +3053,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2006-04-01</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -3096,7 +3096,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2006-05-01</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -3127,7 +3127,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2006-06-01</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -3143,1102 +3143,52 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2006-07-01</t>
+          <t>Table 2.02.5: Exports (US$ Million)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2006-08-01</t>
+          <t>Table 2.02: Exports - Monthly (2006-2010)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2006-09-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2006-10-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2006-11-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2006-12-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2007-01-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2007-01-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2007-02-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2007-03-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>2007-04-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>2007-05-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>2007-06-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>2007-07-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>2007-08-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>2007-09-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>2007-10-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>2007-11-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>2007-12-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>2008-01-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>2008-01-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>2008-02-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>2008-03-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>2008-04-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>2008-05-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>2008-06-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>2008-07-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>2008-08-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>2008-09-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>2008-10-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>2008-11-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>2008-12-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>2009-01-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>2009-01-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>2009-02-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>2009-03-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>2009-04-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>2009-05-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>2009-06-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>2009-07-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>2009-08-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>2009-09-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>2009-10-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>2009-11-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>2009-12-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>2010-01-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>2010-01-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>2010-02-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>2010-03-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>2010-04-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>2010-05-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>2010-06-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>2010-07-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>2010-08-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>2010-09-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>2010-10-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>2010-11-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>2010-12-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                  Central Bank of Sri Lanka</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                  National Gem and Jewellery Authority</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                  Sri Lanka Customs</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Sources: Ceylon Petroleum Corporation and Other Exporters of Petroleum</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Agricultural Exports</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Agricultural Exports</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Aug</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Aug</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Aug</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Aug</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Aug</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Central Bank of Sri Lanka</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Coconut Products</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Coconut Products</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Dec</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Dec</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Dec</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Dec</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Dec</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>Diamonds</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>Diamonds</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Gems</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Gems</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Industrial Exports</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Industrial Exports</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>Jun</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Jun</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>Jun</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>Jun</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>Jun</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>Minor Agricultural Products</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>Minor Agricultural Products</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>National Gem and Jewellery Authority</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>Nov</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>Nov</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>Nov</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>Nov</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>Nov</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>Oct</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>Oct</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>Oct</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>Oct</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>Oct</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>Period</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>Period</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>Petroleum Products</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>Petroleum Products</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>Rubber</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>Rubber</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>Rubber Based Products</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>Rubber Based Products</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>Sep</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Sep</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>Sep</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>Sep</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>Sep</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>Sources: Ceylon Petroleum Corporation and Other Exporters of Petroleum</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>Sri Lanka Customs</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>Table 2.02.5: Exports (US$ Million)</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>Table 2.02.5: Exports (US$ Million)</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
           <t>Table 2.02: Exports - Monthly (2006-2010)</t>
         </is>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>Table 2.02: Exports - Monthly (2006-2010)</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>Tea</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>Tea</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>Textiles and Garments</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>Textiles and Garments</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>Total Exports</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>Total Exports</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>of which</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>of which</t>
-        </is>
-      </c>
-    </row>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
